--- a/data/result/summary.xlsx
+++ b/data/result/summary.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="10-fold train" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="org" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="per" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -52,21 +53,15 @@
     <t xml:space="preserve">test F</t>
   </si>
   <si>
-    <t xml:space="preserve">Multinomial Naive Bayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0,1]</t>
+    <t xml:space="preserve">stochastic gradient descent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean std</t>
   </si>
   <si>
     <t xml:space="preserve">accuracy</t>
   </si>
   <si>
-    <t xml:space="preserve">stochastic gradient descent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean std</t>
-  </si>
-  <si>
     <t xml:space="preserve">stochastic logistic regression</t>
   </si>
   <si>
@@ -77,6 +72,15 @@
   </si>
   <si>
     <t xml:space="preserve">rbf svm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max ent feature selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75% for training, 25% for testing (41 neg, 33 pos). Training data is also used in a 10-fold cross validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra trees feature selection</t>
   </si>
 </sst>
 </file>
@@ -91,6 +95,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,12 +118,14 @@
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,19 +210,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -230,7 +235,7 @@
       </c>
       <c r="E1" s="0"/>
     </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -263,19 +268,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.834</v>
+        <v>0.935</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.93</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +288,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.931</v>
@@ -292,10 +297,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>0.93</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>0.92</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0.93</v>
@@ -303,58 +308,211 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.926</v>
+        <v>0.935</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.935</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>12</v>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.935</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -366,4 +524,327 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.851</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>